--- a/LinhTinh/Thiết bị máy sản xuât Desiccant.xlsx
+++ b/LinhTinh/Thiết bị máy sản xuât Desiccant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Máy SX" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Máy may miệng bao cầm tay</t>
   </si>
   <si>
-    <t>Bộ phận làm túi vải</t>
-  </si>
-  <si>
     <t>Máy dập vải siêu âm bán tự động</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Vật tư tiêu hao</t>
+  </si>
+  <si>
+    <t>Làm túi vải</t>
   </si>
 </sst>
 </file>
@@ -270,18 +270,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -291,19 +279,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -314,21 +290,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,35 +642,35 @@
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="16.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="E3" s="10">
         <f ca="1">TODAY()</f>
-        <v>44863</v>
+        <v>44990</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -720,7 +720,7 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -735,7 +735,7 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -750,24 +750,24 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -782,39 +782,39 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14"/>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -829,8 +829,8 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>25</v>
+      <c r="E14" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -861,14 +861,14 @@
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
@@ -876,7 +876,7 @@
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -893,7 +893,7 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -908,39 +908,39 @@
       <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>16</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="11">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15"/>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -961,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -970,35 +970,35 @@
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="16.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="E3" s="10">
         <f ca="1">TODAY()</f>
-        <v>44863</v>
+        <v>44990</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1023,16 +1023,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>2000</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
+      <c r="E6" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,186 +1040,186 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3">
         <v>2000</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>1000</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>8</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12">
+        <v>100</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="20">
-        <v>100</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>9</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12">
         <v>1000</v>
       </c>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
